--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/15/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.26449999999999</v>
+        <v>-12.14089999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.57519999999999</v>
+        <v>12.39909999999999</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.03409999999999</v>
+        <v>11.99629999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.67719999999998</v>
+        <v>-11.9145</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.41210000000001</v>
+        <v>13.50370000000001</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.950599999999998</v>
+        <v>5.8079</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.66690000000002</v>
+        <v>-14.56050000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.8721</v>
+        <v>-11.8092</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.10439999999999</v>
+        <v>13.0896</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.67079999999999</v>
+        <v>12.70879999999999</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.88869999999999</v>
+        <v>-10.96729999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.76459999999998</v>
+        <v>12.70189999999998</v>
       </c>
     </row>
     <row r="25">
